--- a/server/resultSheet.xlsx
+++ b/server/resultSheet.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,9 +1278,61 @@
         <v>EG/2021/4758</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>676fadbe4b4e14af5e9c6cc1</v>
+      </c>
+      <c r="B37" t="str">
+        <v>676fad524b4e14af5e9c6c7e</v>
+      </c>
+      <c r="C37" t="str">
+        <v>66f82f2dcd5f7178e3e76cb2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>90788.93508333333</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2024-12-28T07:50:22.759Z</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
+        <v>EG/2021/4690</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>677134baedd40cefaeadfc72</v>
+      </c>
+      <c r="B38" t="str">
+        <v>6759705a11b732ce81c0ce27</v>
+      </c>
+      <c r="C38" t="str">
+        <v>66b9ba1d344ae3a23eb47c13</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.004516666666666667</v>
+      </c>
+      <c r="G38" t="str">
+        <v>2024-12-29T11:38:34.261Z</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="str">
+        <v>EG/2021/4758</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I38"/>
   </ignoredErrors>
 </worksheet>
 </file>